--- a/MySEProject/Dataset Reports/Dataset-GurunagSai/LocalAreaDensity vs PotentialRadius.xlsx
+++ b/MySEProject/Dataset Reports/Dataset-GurunagSai/LocalAreaDensity vs PotentialRadius.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gurunag Sai\source\repos\neocortexapi-classification\MySEProject\Dataset Reports\Dataset-GurunagSai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01492C98-3F17-4DC1-A8E7-E997910E83B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F14CC7E-83EC-4678-8475-F241E28683AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,22 +36,6 @@
     <t>Input similarities between two images</t>
   </si>
   <si>
-    <t>rectangle0_rectangle_2
-output similarity</t>
-  </si>
-  <si>
-    <t>rectangle0__triangle0
-output similarity</t>
-  </si>
-  <si>
-    <t>rectangle0_rectangle_2
-input similarity</t>
-  </si>
-  <si>
-    <t>rectangle0__triangle0
-Input Similarity</t>
-  </si>
-  <si>
     <t>Potential Radius</t>
   </si>
   <si>
@@ -74,6 +58,22 @@
   </si>
   <si>
     <t>Potential Radius = 1</t>
+  </si>
+  <si>
+    <t>rectangle00_rectangle_02
+input similarity</t>
+  </si>
+  <si>
+    <t>rectangle00__triangle00
+Input Similarity</t>
+  </si>
+  <si>
+    <t>rectangle00_rectangle_02
+output similarity</t>
+  </si>
+  <si>
+    <t>rectangle00__triangle00
+output similarity</t>
   </si>
 </sst>
 </file>
@@ -205,7 +205,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Output Similarity Between Rectangle0 &amp; Rectangle2</a:t>
+              <a:t>Output Similarity Between Rectangle00 &amp; Rectangle02</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1652,14 +1652,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>5562600</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>699861</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>56697</xdr:rowOff>
     </xdr:to>
@@ -1995,26 +1995,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -2023,25 +2023,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2222,7 +2222,7 @@
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2403,7 +2403,7 @@
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2765,7 +2765,7 @@
     </row>
     <row r="47" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2946,7 +2946,7 @@
     </row>
     <row r="58" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">

--- a/MySEProject/Dataset Reports/Dataset-GurunagSai/LocalAreaDensity vs PotentialRadius.xlsx
+++ b/MySEProject/Dataset Reports/Dataset-GurunagSai/LocalAreaDensity vs PotentialRadius.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gurunag Sai\source\repos\neocortexapi-classification\MySEProject\Dataset Reports\Dataset-GurunagSai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F14CC7E-83EC-4678-8475-F241E28683AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B3E8F2-C4C8-40DA-B348-DB26941D6C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -80,8 +77,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -145,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -153,6 +158,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -205,7 +211,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Output Similarity Between Rectangle00 &amp; Rectangle02</a:t>
+              <a:t>Micro Similarity between Rectangle1 &amp; Rectangle2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -214,7 +220,1249 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14128909735050552"/>
+          <c:x val="0.20165664331328662"/>
+          <c:y val="1.5118788439817222E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12206687746708826"/>
+          <c:y val="0.12726996108638139"/>
+          <c:w val="0.80218687259449561"/>
+          <c:h val="0.61675823652546913"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Potential Radius=1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$59:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-764C-4470-8E51-CF14735F0C13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Potential Radius=5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$48:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FC1-4227-B0D9-073F0A0872E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Potential Radius=10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$37:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>29.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6FC1-4227-B0D9-073F0A0872E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Potential Radius=15</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$26:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>73.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6FC1-4227-B0D9-073F0A0872E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Potential Radius=20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$15:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6FC1-4227-B0D9-073F0A0872E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Potential Radius=30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6FC1-4227-B0D9-073F0A0872E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>input similarity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$59:$C$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>61.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6FC1-4227-B0D9-073F0A0872E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1624190000"/>
+        <c:axId val="1624203728"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1624190000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Local Area Density</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1624203728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1624203728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Similarity in %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1624190000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Macro Similarity between Rectangle1 &amp; Triangle1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15142859994211749"/>
           <c:y val="2.7213819191670999E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -254,8 +1502,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12206686319973774"/>
-          <c:y val="0.13936499183823514"/>
+          <c:x val="0.12469154938309876"/>
+          <c:y val="0.12424620339841795"/>
           <c:w val="0.80218687259449561"/>
           <c:h val="0.61675823652546913"/>
         </c:manualLayout>
@@ -264,8 +1512,132 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Potential Radius=1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$59:$F$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>59.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92B1-42F0-94C1-8C5CF5411562}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="5"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Potential Radius=5</c:v>
           </c:tx>
@@ -301,48 +1673,78 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Sheet1!$D$4:$D$8</c:f>
+              <c:f>Sheet1!$B$59:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!#REF!</c:f>
+              <c:f>Sheet1!$F$48:$F$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>18.12</c:v>
+                  <c:v>20.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.450000000000003</c:v>
+                  <c:v>29.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.8</c:v>
+                  <c:v>39.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.24</c:v>
+                  <c:v>45.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.69</c:v>
+                  <c:v>79.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -350,13 +1752,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6FC1-4227-B0D9-073F0A0872E9}"/>
+              <c16:uniqueId val="{00000001-92B1-42F0-94C1-8C5CF5411562}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>Potential Radius=10</c:v>
           </c:tx>
@@ -392,48 +1794,78 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Sheet1!$D$4:$D$8</c:f>
+              <c:f>Sheet1!$B$59:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!#REF!</c:f>
+              <c:f>Sheet1!$F$37:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>29.41</c:v>
+                  <c:v>22.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.05</c:v>
+                  <c:v>24.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.900000000000006</c:v>
+                  <c:v>27.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.73</c:v>
+                  <c:v>37.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.8</c:v>
+                  <c:v>77.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -441,13 +1873,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6FC1-4227-B0D9-073F0A0872E9}"/>
+              <c16:uniqueId val="{00000002-92B1-42F0-94C1-8C5CF5411562}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>Potential Radius=15</c:v>
           </c:tx>
@@ -477,48 +1909,78 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Sheet1!$D$4:$D$8</c:f>
+              <c:f>Sheet1!$B$59:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!#REF!</c:f>
+              <c:f>Sheet1!$F$26:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>73.239999999999995</c:v>
+                  <c:v>43.29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.89</c:v>
+                  <c:v>47.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.36</c:v>
+                  <c:v>52.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.14</c:v>
+                  <c:v>65.040000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.49</c:v>
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,13 +1988,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6FC1-4227-B0D9-073F0A0872E9}"/>
+              <c16:uniqueId val="{00000003-92B1-42F0-94C1-8C5CF5411562}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>Potential Radius=20</c:v>
           </c:tx>
@@ -562,48 +2024,78 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Sheet1!$D$4:$D$8</c:f>
+              <c:f>Sheet1!$B$59:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!#REF!</c:f>
+              <c:f>Sheet1!$F$15:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>71.08</c:v>
+                  <c:v>46.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.44</c:v>
+                  <c:v>56.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.13</c:v>
+                  <c:v>62.13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.14</c:v>
+                  <c:v>66.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.91</c:v>
+                  <c:v>68.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -611,13 +2103,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6FC1-4227-B0D9-073F0A0872E9}"/>
+              <c16:uniqueId val="{00000004-92B1-42F0-94C1-8C5CF5411562}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>Potential Radius=30</c:v>
           </c:tx>
@@ -647,48 +2139,78 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Sheet1!$D$4:$D$8</c:f>
+              <c:f>Sheet1!$B$59:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!#REF!</c:f>
+              <c:f>Sheet1!$F$4:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24.5</c:v>
+                  <c:v>21.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.799999999999997</c:v>
+                  <c:v>20.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.55</c:v>
+                  <c:v>28.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.66</c:v>
+                  <c:v>44.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.89</c:v>
+                  <c:v>48.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,13 +2218,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6FC1-4227-B0D9-073F0A0872E9}"/>
+              <c16:uniqueId val="{00000005-92B1-42F0-94C1-8C5CF5411562}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:v>input similarity</c:v>
           </c:tx>
@@ -738,48 +2260,78 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Sheet1!$D$4:$D$8</c:f>
+              <c:f>Sheet1!$B$59:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!#REF!</c:f>
+              <c:f>Sheet1!$D$59:$D$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>61.11</c:v>
+                  <c:v>38.630000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.11</c:v>
+                  <c:v>38.630000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.11</c:v>
+                  <c:v>38.630000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.11</c:v>
+                  <c:v>38.630000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.11</c:v>
+                  <c:v>38.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.630000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,7 +2339,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6FC1-4227-B0D9-073F0A0872E9}"/>
+              <c16:uniqueId val="{00000006-92B1-42F0-94C1-8C5CF5411562}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1145,6 +2697,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1648,20 +3237,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>56697</xdr:rowOff>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>180522</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1688,46 +3780,45 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>37647</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB9F3B2-B31F-4A17-87CC-33D20DF6371D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="D4">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>0.7</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>0.9</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1993,20 +4084,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2039,8 +4131,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2077,6 +4169,12 @@
       <c r="D5">
         <v>38.630000000000003</v>
       </c>
+      <c r="E5">
+        <v>25.94</v>
+      </c>
+      <c r="F5">
+        <v>20.28</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2111,6 +4209,12 @@
       <c r="D7">
         <v>38.630000000000003</v>
       </c>
+      <c r="E7">
+        <v>43.99</v>
+      </c>
+      <c r="F7">
+        <v>44.95</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2145,6 +4249,12 @@
       <c r="D9">
         <v>38.630000000000003</v>
       </c>
+      <c r="E9">
+        <v>70.62</v>
+      </c>
+      <c r="F9">
+        <v>61.12</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2179,6 +4289,12 @@
       <c r="D11">
         <v>38.630000000000003</v>
       </c>
+      <c r="E11">
+        <v>87.59</v>
+      </c>
+      <c r="F11">
+        <v>81.900000000000006</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2220,8 +4336,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2258,6 +4374,12 @@
       <c r="D16">
         <v>38.630000000000003</v>
       </c>
+      <c r="E16">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="F16">
+        <v>56.75</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -2276,7 +4398,7 @@
         <v>80.44</v>
       </c>
       <c r="F17">
-        <v>42.13</v>
+        <v>62.13</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2292,6 +4414,12 @@
       <c r="D18">
         <v>38.630000000000003</v>
       </c>
+      <c r="E18">
+        <v>83.49</v>
+      </c>
+      <c r="F18">
+        <v>66.900000000000006</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -2310,7 +4438,7 @@
         <v>85.13</v>
       </c>
       <c r="F19">
-        <v>64.16</v>
+        <v>68.16</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2326,6 +4454,12 @@
       <c r="D20">
         <v>38.630000000000003</v>
       </c>
+      <c r="E20">
+        <v>84.45</v>
+      </c>
+      <c r="F20">
+        <v>70.819999999999993</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -2360,6 +4494,12 @@
       <c r="D22">
         <v>38.630000000000003</v>
       </c>
+      <c r="E22">
+        <v>90.96</v>
+      </c>
+      <c r="F22">
+        <v>82.33</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -2401,8 +4541,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2439,6 +4579,12 @@
       <c r="D27">
         <v>38.630000000000003</v>
       </c>
+      <c r="E27">
+        <v>82.71</v>
+      </c>
+      <c r="F27">
+        <v>47.42</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2473,6 +4619,12 @@
       <c r="D29">
         <v>38.630000000000003</v>
       </c>
+      <c r="E29">
+        <v>79.290000000000006</v>
+      </c>
+      <c r="F29">
+        <v>65.040000000000006</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2507,6 +4659,12 @@
       <c r="D31">
         <v>38.630000000000003</v>
       </c>
+      <c r="E31">
+        <v>83.51</v>
+      </c>
+      <c r="F31">
+        <v>73.680000000000007</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -2541,6 +4699,12 @@
       <c r="D33">
         <v>38.630000000000003</v>
       </c>
+      <c r="E33">
+        <v>88.28</v>
+      </c>
+      <c r="F33">
+        <v>87.38</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -2582,8 +4746,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2620,6 +4784,12 @@
       <c r="D38">
         <v>38.630000000000003</v>
       </c>
+      <c r="E38">
+        <v>38.82</v>
+      </c>
+      <c r="F38">
+        <v>24.55</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -2654,6 +4824,12 @@
       <c r="D40">
         <v>38.630000000000003</v>
       </c>
+      <c r="E40">
+        <v>58.57</v>
+      </c>
+      <c r="F40">
+        <v>37.75</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -2688,6 +4864,12 @@
       <c r="D42">
         <v>38.630000000000003</v>
       </c>
+      <c r="E42">
+        <v>79.180000000000007</v>
+      </c>
+      <c r="F42">
+        <v>80.290000000000006</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -2722,6 +4904,12 @@
       <c r="D44">
         <v>38.630000000000003</v>
       </c>
+      <c r="E44">
+        <v>90.88</v>
+      </c>
+      <c r="F44">
+        <v>91.82</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -2763,8 +4951,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2801,6 +4989,12 @@
       <c r="D49">
         <v>38.630000000000003</v>
       </c>
+      <c r="E49">
+        <v>26.19</v>
+      </c>
+      <c r="F49">
+        <v>29.04</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -2835,6 +5029,12 @@
       <c r="D51">
         <v>38.630000000000003</v>
       </c>
+      <c r="E51">
+        <v>46.77</v>
+      </c>
+      <c r="F51">
+        <v>45.98</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -2869,6 +5069,12 @@
       <c r="D53">
         <v>38.630000000000003</v>
       </c>
+      <c r="E53">
+        <v>89.14</v>
+      </c>
+      <c r="F53">
+        <v>89.48</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -2903,6 +5109,12 @@
       <c r="D55">
         <v>38.630000000000003</v>
       </c>
+      <c r="E55">
+        <v>98.04</v>
+      </c>
+      <c r="F55">
+        <v>97.32</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -2962,6 +5174,12 @@
       <c r="D59">
         <v>38.630000000000003</v>
       </c>
+      <c r="E59">
+        <v>48.6</v>
+      </c>
+      <c r="F59">
+        <v>59.21</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -2976,6 +5194,12 @@
       <c r="D60">
         <v>38.630000000000003</v>
       </c>
+      <c r="E60">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="F60">
+        <v>64.959999999999994</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -2990,6 +5214,12 @@
       <c r="D61">
         <v>38.630000000000003</v>
       </c>
+      <c r="E61">
+        <v>79.760000000000005</v>
+      </c>
+      <c r="F61">
+        <v>72.849999999999994</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -3004,6 +5234,12 @@
       <c r="D62">
         <v>38.630000000000003</v>
       </c>
+      <c r="E62">
+        <v>85.83</v>
+      </c>
+      <c r="F62">
+        <v>84.93</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -3018,6 +5254,12 @@
       <c r="D63">
         <v>38.630000000000003</v>
       </c>
+      <c r="E63">
+        <v>93.54</v>
+      </c>
+      <c r="F63">
+        <v>92.7</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -3032,6 +5274,12 @@
       <c r="D64">
         <v>38.630000000000003</v>
       </c>
+      <c r="E64">
+        <v>91.68</v>
+      </c>
+      <c r="F64">
+        <v>92.45</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -3046,6 +5294,12 @@
       <c r="D65">
         <v>38.630000000000003</v>
       </c>
+      <c r="E65">
+        <v>95.49</v>
+      </c>
+      <c r="F65">
+        <v>95.56</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -3060,6 +5314,12 @@
       <c r="D66">
         <v>38.630000000000003</v>
       </c>
+      <c r="E66">
+        <v>98.07</v>
+      </c>
+      <c r="F66">
+        <v>98.08</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -3074,6 +5334,12 @@
       <c r="D67">
         <v>38.630000000000003</v>
       </c>
+      <c r="E67">
+        <v>99.6</v>
+      </c>
+      <c r="F67">
+        <v>99.01</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -3095,13 +5361,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D69">
-        <v>38.630000000000003</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>